--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna3-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna3-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Efna3</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08624800000000001</v>
+        <v>0.046374</v>
       </c>
       <c r="H2">
-        <v>0.258744</v>
+        <v>0.139122</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6592866045237633</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6592866045237632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N2">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q2">
-        <v>0.9560618111866667</v>
+        <v>0.35974831454</v>
       </c>
       <c r="R2">
-        <v>8.604556300680001</v>
+        <v>3.23773483086</v>
       </c>
       <c r="S2">
-        <v>0.4259149152633459</v>
+        <v>0.2664025376819164</v>
       </c>
       <c r="T2">
-        <v>0.4259149152633459</v>
+        <v>0.2664025376819164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08624800000000001</v>
+        <v>0.046374</v>
       </c>
       <c r="H3">
-        <v>0.258744</v>
+        <v>0.139122</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6592866045237633</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6592866045237632</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.937095</v>
       </c>
       <c r="O3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q3">
-        <v>0.02694085652</v>
+        <v>0.01448561451</v>
       </c>
       <c r="R3">
-        <v>0.24246770868</v>
+        <v>0.13037053059</v>
       </c>
       <c r="S3">
-        <v>0.01200185227312402</v>
+        <v>0.01072695634524484</v>
       </c>
       <c r="T3">
-        <v>0.01200185227312402</v>
+        <v>0.01072695634524484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08624800000000001</v>
+        <v>0.046374</v>
       </c>
       <c r="H4">
-        <v>0.258744</v>
+        <v>0.139122</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6592866045237633</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6592866045237632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N4">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q4">
-        <v>1.261722221994667</v>
+        <v>0.516062563018</v>
       </c>
       <c r="R4">
-        <v>11.355499997952</v>
+        <v>4.644563067162</v>
       </c>
       <c r="S4">
-        <v>0.5620832324635302</v>
+        <v>0.3821571104966019</v>
       </c>
       <c r="T4">
-        <v>0.5620832324635302</v>
+        <v>0.3821571104966019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.02396566666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.071897</v>
+      </c>
+      <c r="I5">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="J5">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>7.757543333333333</v>
+      </c>
+      <c r="N5">
+        <v>23.27263</v>
+      </c>
+      <c r="O5">
+        <v>0.4040769763164727</v>
+      </c>
+      <c r="P5">
+        <v>0.4040769763164727</v>
+      </c>
+      <c r="Q5">
+        <v>0.1859146976788889</v>
+      </c>
+      <c r="R5">
+        <v>1.67323227911</v>
+      </c>
+      <c r="S5">
+        <v>0.1376744386345563</v>
+      </c>
+      <c r="T5">
+        <v>0.1376744386345563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02396566666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.071897</v>
+      </c>
+      <c r="I6">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="J6">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.312365</v>
+      </c>
+      <c r="N6">
+        <v>0.937095</v>
+      </c>
+      <c r="O6">
+        <v>0.01627055103446774</v>
+      </c>
+      <c r="P6">
+        <v>0.01627055103446774</v>
+      </c>
+      <c r="Q6">
+        <v>0.007486035468333333</v>
+      </c>
+      <c r="R6">
+        <v>0.06737431921500001</v>
+      </c>
+      <c r="S6">
+        <v>0.005543594689222901</v>
+      </c>
+      <c r="T6">
+        <v>0.005543594689222901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.02396566666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.071897</v>
+      </c>
+      <c r="I7">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="J7">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>11.12827366666667</v>
+      </c>
+      <c r="N7">
+        <v>33.384821</v>
+      </c>
+      <c r="O7">
+        <v>0.5796524726490594</v>
+      </c>
+      <c r="P7">
+        <v>0.5796524726490595</v>
+      </c>
+      <c r="Q7">
+        <v>0.2666964972707778</v>
+      </c>
+      <c r="R7">
+        <v>2.400268475437</v>
+      </c>
+      <c r="S7">
+        <v>0.1974953621524575</v>
+      </c>
+      <c r="T7">
+        <v>0.1974953621524575</v>
       </c>
     </row>
   </sheetData>
